--- a/ASP.NET CORE/HRMNS/public/wwwroot/templates/Employee_Detail_Template.xlsx
+++ b/ASP.NET CORE/HRMNS/public/wwwroot/templates/Employee_Detail_Template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135"/>
   </bookViews>
   <sheets>
     <sheet name="Hop Dong" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
   <si>
     <t>Mã Hợp Đồng</t>
   </si>
@@ -86,9 +86,6 @@
     <t>H2105001</t>
   </si>
   <si>
-    <t>HD20210501</t>
-  </si>
-  <si>
     <t>hd lao dong</t>
   </si>
   <si>
@@ -114,6 +111,12 @@
   </si>
   <si>
     <t>no</t>
+  </si>
+  <si>
+    <t>Hợp Đồng Thử Việc Cho OP(100%)</t>
+  </si>
+  <si>
+    <t>Hợp Đồng Thử Việc(85%)</t>
   </si>
 </sst>
 </file>
@@ -472,8 +475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -514,14 +517,12 @@
       <c r="A2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E2" s="3">
         <v>44317</v>
@@ -540,7 +541,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>LoaiDH_CONST!$A$1:$A$4</xm:f>
+            <xm:f>LoaiDH_CONST!$A$1:$A$5</xm:f>
           </x14:formula1>
           <xm:sqref>D2</xm:sqref>
         </x14:dataValidation>
@@ -664,10 +665,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -677,46 +678,54 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1">
-        <v>14</v>
+        <v>20</v>
+      </c>
+      <c r="B1" s="5">
+        <v>1</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2">
-        <v>15</v>
+        <v>22</v>
+      </c>
+      <c r="B2" s="5">
+        <v>2</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3">
-        <v>13</v>
+        <v>28</v>
+      </c>
+      <c r="B3" s="5">
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4">
-        <v>16</v>
+        <v>29</v>
+      </c>
+      <c r="B4" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="5">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
